--- a/xlsx/child-3F1-speed.xlsx
+++ b/xlsx/child-3F1-speed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17300" tabRatio="500"/>
